--- a/doc/数据库文档/__会员表 (2).xlsx
+++ b/doc/数据库文档/__会员表 (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,8 +118,328 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非微信端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以作为账号登陆页可以用于找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用于PC端APP短登陆,找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于商城推荐,单位mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于工作服或商城推荐,单位cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证+人照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ident_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动或者推荐人可以获得积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟霖改过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型改为tinyint型，1男 2女 0未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型改为date型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为登录时间，记录会员最后一次登录时间，字段类型为datetime，字段名为login_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为修改时间，记录最后一次修改会员信息数据时间，字段类型为datetime，字段名为updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型改为date型 格式：2014/09/18,字段名改为sign_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据流量业绩（含下线业绩）自动分阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">字段类型为int型，关联media表media_id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">关联media表media_id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段教练表有，此表不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义上传个人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要,给cert_id就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>user</t>
+      <t>member</t>
     </r>
     <r>
       <rPr>
@@ -134,336 +454,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非微信端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以作为账号登陆页可以用于找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用于PC端APP短登陆,找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoe_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(4,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于商城推荐,单位mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于工作服或商城推荐,单位cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(19)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证+人照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ident_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(6,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动或者推荐人可以获得积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伟霖改过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型改为tinyint型，1男 2女 0未知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型改为date型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改为登录时间，记录会员最后一次登录时间，字段类型为datetime，字段名为login_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改为修改时间，记录最后一次修改会员信息数据时间，字段类型为datetime，字段名为updated_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型改为date型 格式：2014/09/18,字段名改为sign_on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶衔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据流量业绩（含下线业绩）自动分阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">字段类型为int型，关联media表media_id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">关联media表media_id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段教练表有，此表不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义上传个人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updatetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要,给cert_id就行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -765,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,8 +838,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,42 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1211,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1227,15 +1215,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75">
-      <c r="A1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1" t="s">
@@ -1248,17 +1236,17 @@
         <v>21</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
@@ -1272,12 +1260,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="44"/>
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1291,12 +1279,12 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1310,32 +1298,24 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="5">
@@ -1345,17 +1325,17 @@
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="40"/>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5">
@@ -1367,14 +1347,14 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="28"/>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
@@ -1386,14 +1366,14 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="31"/>
       <c r="G9" s="9" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
@@ -1401,18 +1381,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="31"/>
       <c r="G10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
@@ -1424,14 +1404,14 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="31"/>
       <c r="G11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5">
@@ -1443,14 +1423,14 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
@@ -1458,18 +1438,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
@@ -1477,18 +1457,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5">
@@ -1496,18 +1476,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5">
@@ -1521,15 +1501,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5">
@@ -1541,14 +1521,14 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="44"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="37"/>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5">
@@ -1560,12 +1540,12 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="44"/>
+      <c r="E18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="37"/>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5">
@@ -1577,12 +1557,12 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="44"/>
+      <c r="E19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="37"/>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5">
@@ -1594,17 +1574,17 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="34">
+        <v>77</v>
+      </c>
+      <c r="E20" s="38">
         <v>42922</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5">
@@ -1616,20 +1596,20 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="28"/>
       <c r="G21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5">
@@ -1637,24 +1617,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5">
@@ -1662,24 +1642,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="40">
+        <v>78</v>
+      </c>
+      <c r="E23" s="33">
         <v>42922.598541666666</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>107</v>
+        <v>88</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5">
@@ -1687,19 +1667,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="42"/>
+      <c r="E24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="35"/>
       <c r="G24" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5">
@@ -1711,12 +1691,12 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5">
@@ -1724,24 +1704,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="30"/>
       <c r="G26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>108</v>
+        <v>61</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5">
@@ -1753,32 +1733,32 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:11" ht="16.5">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="31"/>
       <c r="G28" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5">
@@ -1786,18 +1766,18 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="36"/>
+        <v>65</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="31"/>
       <c r="G29" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
@@ -1805,23 +1785,37 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
@@ -1838,20 +1832,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
